--- a/exportTemplates/statistics-list-default.xlsx
+++ b/exportTemplates/statistics-list-default.xlsx
@@ -22,9 +22,6 @@
     <t>Дата добавления</t>
   </si>
   <si>
-    <t>${table:reports.created}</t>
-  </si>
-  <si>
     <t xml:space="preserve">${objectName}                                           </t>
   </si>
   <si>
@@ -43,9 +40,6 @@
     <t>${table:statistics.score}</t>
   </si>
   <si>
-    <t>${table:statisticscommandOne}</t>
-  </si>
-  <si>
     <t>${table:statistics.commandTwo}</t>
   </si>
   <si>
@@ -82,25 +76,31 @@
     <t>${table:statistics.total}</t>
   </si>
   <si>
+    <t>${table:statistics.bank}</t>
+  </si>
+  <si>
+    <t>Банк</t>
+  </si>
+  <si>
+    <t>Итого</t>
+  </si>
+  <si>
+    <t>Дата исправления</t>
+  </si>
+  <si>
+    <t>${table:statistics.commandOne}</t>
+  </si>
+  <si>
+    <t>${table:statistics.created}</t>
+  </si>
+  <si>
+    <t>Коэф.</t>
+  </si>
+  <si>
     <t>${table:statistics.percent}</t>
   </si>
   <si>
-    <t>${table:statistics.bank}</t>
-  </si>
-  <si>
-    <t>Проценты</t>
-  </si>
-  <si>
-    <t>Банк</t>
-  </si>
-  <si>
-    <t>Итого</t>
-  </si>
-  <si>
-    <t>Коэффициент</t>
-  </si>
-  <si>
-    <t>Дата исправления</t>
+    <t>%</t>
   </si>
 </sst>
 </file>
@@ -537,23 +537,23 @@
   <dimension ref="A2:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="37.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="8" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="7" customWidth="1"/>
     <col min="9" max="9" width="12.85546875" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" style="4" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="6.42578125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="13" style="4" customWidth="1"/>
     <col min="14" max="14" width="7.28515625" style="4" customWidth="1"/>
     <col min="15" max="15" width="14.140625" customWidth="1"/>
     <col min="16" max="16" width="13.42578125" customWidth="1"/>
@@ -568,7 +568,7 @@
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -581,7 +581,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="7"/>
@@ -615,7 +615,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -652,40 +652,40 @@
         <v>0</v>
       </c>
       <c r="B7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="E7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="F7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="G7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>19</v>
-      </c>
       <c r="H7" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L7" s="11" t="s">
         <v>1</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N7" s="16"/>
       <c r="O7" s="16"/>
@@ -693,45 +693,45 @@
       <c r="Q7" s="17"/>
       <c r="R7" s="17"/>
     </row>
-    <row r="8" spans="1:18" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" s="18" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="C8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="14" t="s">
+      <c r="G8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="10" t="s">
         <v>9</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="O8" s="17"/>
       <c r="P8" s="17"/>

--- a/exportTemplates/statistics-list-default.xlsx
+++ b/exportTemplates/statistics-list-default.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>№ п./п.</t>
   </si>
@@ -101,6 +101,12 @@
   </si>
   <si>
     <t>%</t>
+  </si>
+  <si>
+    <t>прибыль</t>
+  </si>
+  <si>
+    <t>${profit}</t>
   </si>
 </sst>
 </file>
@@ -537,7 +543,7 @@
   <dimension ref="A2:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,8 +577,12 @@
         <v>3</v>
       </c>
       <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
+      <c r="I2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="K2" s="6"/>
       <c r="M2" s="15"/>
       <c r="N2" s="15"/>

--- a/exportTemplates/statistics-list-default.xlsx
+++ b/exportTemplates/statistics-list-default.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>№ п./п.</t>
   </si>
@@ -46,18 +46,12 @@
     <t>${table:statistics.modified}</t>
   </si>
   <si>
-    <t>${table:statistics.strategy}</t>
-  </si>
-  <si>
     <t>${table:statistics.index}</t>
   </si>
   <si>
     <t>Матч</t>
   </si>
   <si>
-    <t>Стратегия</t>
-  </si>
-  <si>
     <t>Первая команда</t>
   </si>
   <si>
@@ -73,18 +67,6 @@
     <t>${table:statistics.rate}</t>
   </si>
   <si>
-    <t>${table:statistics.total}</t>
-  </si>
-  <si>
-    <t>${table:statistics.bank}</t>
-  </si>
-  <si>
-    <t>Банк</t>
-  </si>
-  <si>
-    <t>Итого</t>
-  </si>
-  <si>
     <t>Дата исправления</t>
   </si>
   <si>
@@ -97,16 +79,16 @@
     <t>Коэф.</t>
   </si>
   <si>
-    <t>${table:statistics.percent}</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
     <t>прибыль</t>
   </si>
   <si>
     <t>${profit}</t>
+  </si>
+  <si>
+    <t>Общая прибыль</t>
+  </si>
+  <si>
+    <t>${table:statistics.profit}</t>
   </si>
 </sst>
 </file>
@@ -187,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -235,6 +217,9 @@
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -540,56 +525,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:R9"/>
+  <dimension ref="A2:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="37.42578125" customWidth="1"/>
-    <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="7" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" customWidth="1"/>
-    <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="6.42578125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="13" style="4" customWidth="1"/>
-    <col min="14" max="14" width="7.28515625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="14.140625" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" customWidth="1"/>
-    <col min="17" max="17" width="21.5703125" customWidth="1"/>
-    <col min="19" max="19" width="23.5703125" customWidth="1"/>
-    <col min="20" max="20" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="4" width="37.42578125" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="7" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="13" style="4" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" customWidth="1"/>
+    <col min="14" max="14" width="21.5703125" customWidth="1"/>
+    <col min="16" max="16" width="23.5703125" customWidth="1"/>
+    <col min="17" max="17" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="13" t="s">
+      <c r="D2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="6"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
+      <c r="F2" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="20"/>
+      <c r="H2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -597,167 +577,139 @@
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="5"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
       <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="G4" s="5"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
       <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="G5" s="5"/>
       <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
       <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="G6" s="5"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
       <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="1:18" s="18" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" s="18" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="D7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="E7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="F7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>16</v>
-      </c>
       <c r="G7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L7" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="M7" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
     </row>
-    <row r="8" spans="1:18" s="18" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" s="18" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="H8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="M8" s="10" t="s">
+      <c r="J8" s="10" t="s">
         <v>9</v>
       </c>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
       <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
+      <c r="G9" s="9"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F2:G2"/>
+  </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.37" bottom="0.37" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
